--- a/translations/VIE/admin-strings_VIE.xlsx
+++ b/translations/VIE/admin-strings_VIE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soukc\Documents\PROJECTS\91709\91709 - 04 Layout\VIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melinda/seattle-ready/translations/VIE/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1185" windowWidth="28155" windowHeight="16875" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>English</t>
   </si>
@@ -579,17 +579,24 @@
   </si>
   <si>
     <t>Vào giữa tháng Tư năm 1938, các trận mưa nặng hạt gây ra lũ lụt gần Kent và Auburn, và trên khắp Thung Lũng Sông Green. Trong bức ảnh này, các công nhân đang xếp các túi cát dọng rìa một con đường bị ngập lụt tại Thung Lũng Sông Green. Bức ảnh này được chụp nhìn ra phía đông trên Đường S. 259th, một khu nhà phía đông Cao tốc 167. Sông Green nằm cách khoảng 500 feet về phía bên phải. (ảnh thuộc về: MOHAI, Bộ sưu tập Seattle PI)</t>
+  </si>
+  <si>
+    <t>What to Expect at This Location</t>
+  </si>
+  <si>
+    <t>Điều Gì Có Thể Xảy Ra tại Địa Điểm Này</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -614,6 +621,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -633,16 +653,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -670,6 +690,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,23 +972,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="75.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="75.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="75.625" style="6"/>
-    <col min="3" max="16384" width="75.625" style="3"/>
+    <col min="1" max="1" width="75.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" style="6"/>
+    <col min="3" max="16384" width="75.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +996,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -982,7 +1004,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -990,7 +1012,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -998,7 +1020,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1006,7 +1028,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1036,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1022,7 +1044,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1052,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1046,7 +1068,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1076,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1062,7 +1084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +1092,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1078,7 +1100,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1086,7 +1108,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -1094,7 +1116,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1102,7 +1124,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1110,7 +1132,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1118,7 +1140,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1148,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1156,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -1142,7 +1164,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1172,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1158,7 +1180,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -1166,7 +1188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1174,7 +1196,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +1204,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1190,7 +1212,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -1198,7 +1220,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1206,7 +1228,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -1214,7 +1236,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -1222,7 +1244,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
@@ -1230,7 +1252,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1260,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -1246,7 +1268,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -1254,7 +1276,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1262,7 +1284,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1270,7 +1292,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1278,7 +1300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
@@ -1286,7 +1308,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1294,7 +1316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
@@ -1302,7 +1324,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1310,7 +1332,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1318,7 +1340,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
@@ -1334,7 +1356,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -1342,7 +1364,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -1350,7 +1372,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
@@ -1358,7 +1380,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1366,7 +1388,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -1374,7 +1396,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
@@ -1382,7 +1404,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
@@ -1390,7 +1412,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
@@ -1398,7 +1420,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
@@ -1406,7 +1428,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
@@ -1414,7 +1436,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
@@ -1422,7 +1444,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
@@ -1430,7 +1452,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
@@ -1438,7 +1460,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
@@ -1446,7 +1468,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
@@ -1454,7 +1476,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
@@ -1462,7 +1484,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
@@ -1470,7 +1492,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
@@ -1478,7 +1500,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
@@ -1486,7 +1508,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -1494,7 +1516,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
@@ -1502,7 +1524,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>67</v>
       </c>
@@ -1510,7 +1532,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
@@ -1518,7 +1540,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>69</v>
       </c>
@@ -1526,7 +1548,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
@@ -1534,7 +1556,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>71</v>
       </c>
@@ -1542,7 +1564,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
@@ -1550,7 +1572,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>73</v>
       </c>
@@ -1558,7 +1580,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>74</v>
       </c>
@@ -1566,7 +1588,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
@@ -1574,7 +1596,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
@@ -1582,7 +1604,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>77</v>
       </c>
@@ -1590,7 +1612,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
@@ -1598,7 +1620,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
@@ -1606,7 +1628,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>80</v>
       </c>
@@ -1614,7 +1636,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
@@ -1622,7 +1644,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
@@ -1630,7 +1652,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
@@ -1638,7 +1660,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
@@ -1646,7 +1668,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
@@ -1654,7 +1676,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
@@ -1662,7 +1684,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
@@ -1670,7 +1692,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
@@ -1678,7 +1700,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
@@ -1686,7 +1708,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>90</v>
       </c>
@@ -1694,12 +1716,20 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/translations/VIE/admin-strings_VIE.xlsx
+++ b/translations/VIE/admin-strings_VIE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>English</t>
   </si>
@@ -585,6 +585,54 @@
   </si>
   <si>
     <t>Điều Gì Có Thể Xảy Ra tại Địa Điểm Này</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>Trước</t>
+  </si>
+  <si>
+    <t>During</t>
+  </si>
+  <si>
+    <t>Trong khi xảy ra</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Sau</t>
+  </si>
+  <si>
+    <t>What's Happened?</t>
+  </si>
+  <si>
+    <t>Điều Gì Đã Xảy Ra?</t>
+  </si>
+  <si>
+    <t>What's the Worst?</t>
+  </si>
+  <si>
+    <t>Điều Tồi Tệ Nhất?</t>
+  </si>
+  <si>
+    <t>Cascadia Quake</t>
+  </si>
+  <si>
+    <t>Động Đất Cascadia</t>
+  </si>
+  <si>
+    <t>Tsunami Zone</t>
+  </si>
+  <si>
+    <t>Khu Vực Sóng Thần</t>
+  </si>
+  <si>
+    <t>If the dams failed</t>
+  </si>
+  <si>
+    <t>Nếu đập bị vỡ</t>
   </si>
 </sst>
 </file>
@@ -975,10 +1023,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:B93"/>
+      <selection activeCell="A94" sqref="A94:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="75.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1732,6 +1780,70 @@
         <v>185</v>
       </c>
     </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="75" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
